--- a/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
+++ b/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\source\repos\dormant-site-reclamation-program\services\dsrp-web\src\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE419C-75E0-4D1B-81A1-588EEB3316E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB3522-C0BC-4E54-A01E-B577B3CD9009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CA0C0557-EF29-410C-A643-F0A2B823516D}"/>
+    <workbookView xWindow="340" yWindow="3840" windowWidth="28780" windowHeight="15450" xr2:uid="{CA0C0557-EF29-410C-A643-F0A2B823516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -36,9 +30,6 @@
     <t>Invoice Number</t>
   </si>
   <si>
-    <t>Invoice Date (yyy-mm-dd)</t>
-  </si>
-  <si>
     <t>Invoice Amount</t>
   </si>
   <si>
@@ -55,6 +46,9 @@
   </si>
   <si>
     <t>Free text</t>
+  </si>
+  <si>
+    <t>Invoice Date (yyyy-mm-dd)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEE9D7E-A780-4A58-B331-B98DFDEE61D2}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -433,33 +429,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
+++ b/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\source\repos\dormant-site-reclamation-program\services\dsrp-web\src\assets\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SFP.IDIR.BCGOV\U161\RESTEVEN$\Profile\Desktop\Dormant Sites\IT Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB3522-C0BC-4E54-A01E-B577B3CD9009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F1665-8B29-47A7-97B7-E157A74D1DDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="3840" windowWidth="28780" windowHeight="15450" xr2:uid="{CA0C0557-EF29-410C-A643-F0A2B823516D}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="21262" windowHeight="12772" xr2:uid="{CA0C0557-EF29-410C-A643-F0A2B823516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -39,23 +45,29 @@
     <t>Vendor Name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>$ amount</t>
-  </si>
-  <si>
-    <t>Free text</t>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Qualification (e.g. CEO, CFO)</t>
   </si>
   <si>
     <t>Invoice Date (yyyy-mm-dd)</t>
+  </si>
+  <si>
+    <t>I certify that this is a true copy of the document produced to me on [date]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +83,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,15 +120,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,54 +474,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEE9D7E-A780-4A58-B331-B98DFDEE61D2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
+++ b/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\source\repos\dormant-site-reclamation-program\services\dsrp-web\src\assets\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\backhoe\S6207\UPSTREAM DD\REGULATORY AND INFRASTRUCTURE\Infrastructure Development\Dormant Sites Program\Dev Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB3522-C0BC-4E54-A01E-B577B3CD9009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8531BFE3-3FDD-48A8-A08D-E3A9C93DE5D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="3840" windowWidth="28780" windowHeight="15450" xr2:uid="{CA0C0557-EF29-410C-A643-F0A2B823516D}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="21262" windowHeight="12772" xr2:uid="{CA0C0557-EF29-410C-A643-F0A2B823516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -39,23 +45,41 @@
     <t>Vendor Name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>$ amount</t>
-  </si>
-  <si>
-    <t>Free text</t>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Qualification (e.g. CEO, CFO)</t>
   </si>
   <si>
     <t>Invoice Date (yyyy-mm-dd)</t>
+  </si>
+  <si>
+    <t>Date Reviewed (yyyy-mm-dd)</t>
+  </si>
+  <si>
+    <t>Dormant Sites Reclamation Program - Evidence of Cost Form</t>
+  </si>
+  <si>
+    <t>I have reviewed the attached information and it is true and correct.</t>
+  </si>
+  <si>
+    <t>Company Name:</t>
+  </si>
+  <si>
+    <t>Agreement Reference #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +95,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,15 +158,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,54 +507,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEE9D7E-A780-4A58-B331-B98DFDEE61D2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
+++ b/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SFP.IDIR.BCGOV\U161\RESTEVEN$\Profile\Desktop\Dormant Sites\IT Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\backhoe\S6207\UPSTREAM DD\REGULATORY AND INFRASTRUCTURE\Infrastructure Development\Dormant Sites Program\Dev Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F1665-8B29-47A7-97B7-E157A74D1DDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8531BFE3-3FDD-48A8-A08D-E3A9C93DE5D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="21262" windowHeight="12772" xr2:uid="{CA0C0557-EF29-410C-A643-F0A2B823516D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -57,7 +57,19 @@
     <t>Invoice Date (yyyy-mm-dd)</t>
   </si>
   <si>
-    <t>I certify that this is a true copy of the document produced to me on [date]</t>
+    <t>Date Reviewed (yyyy-mm-dd)</t>
+  </si>
+  <si>
+    <t>Dormant Sites Reclamation Program - Evidence of Cost Form</t>
+  </si>
+  <si>
+    <t>I have reviewed the attached information and it is true and correct.</t>
+  </si>
+  <si>
+    <t>Company Name:</t>
+  </si>
+  <si>
+    <t>Agreement Reference #</t>
   </si>
 </sst>
 </file>
@@ -67,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +109,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -112,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,21 +173,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -158,7 +187,11 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -474,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEE9D7E-A780-4A58-B331-B98DFDEE61D2}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -489,96 +522,83 @@
     <col min="5" max="5" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -685,6 +705,48 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
+++ b/services/dsrp-web/src/assets/downloads/Dormant Sites Reclamation Program - Evidence of Cost.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\backhoe\S6207\UPSTREAM DD\REGULATORY AND INFRASTRUCTURE\Infrastructure Development\Dormant Sites Program\Dev Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8531BFE3-3FDD-48A8-A08D-E3A9C93DE5D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27ADEDC-712A-483B-BF20-7A667DF5CED0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="21262" windowHeight="12772" xr2:uid="{CA0C0557-EF29-410C-A643-F0A2B823516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$12:$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,10 +69,10 @@
     <t>I have reviewed the attached information and it is true and correct.</t>
   </si>
   <si>
-    <t>Company Name:</t>
-  </si>
-  <si>
-    <t>Agreement Reference #</t>
+    <t>Agreement Number</t>
+  </si>
+  <si>
+    <t>Company Name</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +107,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,18 +115,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,25 +191,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -507,248 +594,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEE9D7E-A780-4A58-B331-B98DFDEE61D2}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="21.3" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="13.15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="13.15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="13.15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lFoI7qp+BRd9nVn6NT1vkKQsqRn3VXF3hOxYQ8bamLcgDV7XfOI7rkAWAECmchOrvw0BihtuNKJ/aJqfxgrnnw==" saltValue="Om5INqqOZBgt8E+w3A4cyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>